--- a/BalanceSheet/ALB_bal.xlsx
+++ b/BalanceSheet/ALB_bal.xlsx
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-9896000.0</v>
+        <v>375000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-1070000.0</v>
+        <v>405000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>4200000.0</v>
+        <v>406000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4790000.0</v>
+        <v>403000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6668000.0</v>
+        <v>383000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>393120000.0</v>
